--- a/sample/src/main/resources/cycling.xlsx
+++ b/sample/src/main/resources/cycling.xlsx
@@ -208,7 +208,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D19" activeCellId="0" pane="topLeft" sqref="D19"/>
+      <selection activeCell="C19" activeCellId="0" pane="topLeft" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -252,7 +252,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
       <c r="A2" s="6" t="n">
-        <v>41461</v>
+        <v>41835</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>56</v>
@@ -279,7 +279,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
       <c r="A3" s="6" t="n">
-        <v>41462</v>
+        <v>41836</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>34</v>
@@ -306,7 +306,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="4">
       <c r="A4" s="6" t="n">
-        <v>41463</v>
+        <v>41837</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>56</v>
@@ -333,7 +333,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="5">
       <c r="A5" s="6" t="n">
-        <v>41464</v>
+        <v>41838</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>63</v>
@@ -360,7 +360,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="6">
       <c r="A6" s="6" t="n">
-        <v>41465</v>
+        <v>41839</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>22</v>
@@ -387,7 +387,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="7">
       <c r="A7" s="6" t="n">
-        <v>41466</v>
+        <v>41840</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>45</v>
@@ -414,7 +414,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="8">
       <c r="A8" s="6" t="n">
-        <v>41467</v>
+        <v>41841</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>56</v>
@@ -441,7 +441,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="9">
       <c r="A9" s="6" t="n">
-        <v>41468</v>
+        <v>41842</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>23</v>
@@ -468,7 +468,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="10">
       <c r="A10" s="6" t="n">
-        <v>41469</v>
+        <v>41843</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>64</v>
@@ -495,7 +495,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="11">
       <c r="A11" s="6" t="n">
-        <v>41470</v>
+        <v>41844</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>56</v>
@@ -522,7 +522,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="12">
       <c r="A12" s="6" t="n">
-        <v>41471</v>
+        <v>41845</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>39</v>
